--- a/data/IEEE9/ieee18_3/ieee18_3_2030.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF31B0-4DD8-4366-8872-FC6F60D7212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F301A52-C5DD-4A47-A46D-1BB7915308F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2370" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.815573770491803E-5</v>
+        <v>3.6338797814207646E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1116698668129589E-5</v>
+        <v>1.9862241321508028E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,27 +13510,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.425349527965308E-2</v>
+        <v>3.3575208244412423E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67208634835891445</v>
+        <v>0.68594379884054157</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>1.6093921447180717</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.1787057557610767</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5547013764788549</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7904463079831781</v>
+        <v>1.9183353299819768</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13546,19 +13546,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22522941878949265</v>
+        <v>0.21429595185796388</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3361436066683611E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4513959982432922E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5935814208649529E-5</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5963033885587485</v>
+        <v>5.8715157364224453</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4360240836855755</v>
+        <v>5.3931122349110163</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2087697355713356</v>
+        <v>5.2933786454152987</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2817466801292472</v>
+        <v>5.5789693562197193</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9556674245175301</v>
+        <v>4.5471806531038919</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6087033295693627</v>
+        <v>4.2224204533093852</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2705016493944363</v>
+        <v>3.7841694156573933</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0781447342414774</v>
+        <v>3.463574557069129</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9958503499699458</v>
+        <v>3.1003500582057404</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7518361838962548</v>
+        <v>2.9787113564565946</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.79206214527844</v>
+        <v>2.8417813954253579</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7510653421048796</v>
+        <v>2.8028603660754667</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.623343738230008</v>
+        <v>2.7596843549910135</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6315292981671492</v>
+        <v>2.7991924233259913</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.054966280535433</v>
+        <v>3.2570543988878593</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2425735042164998</v>
+        <v>3.6628700568869501</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3671053629674756</v>
+        <v>3.8670533157389446</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6202029888839347</v>
+        <v>4.3237673083893311</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4173578797403383</v>
+        <v>4.234487442402294</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4734191720204266</v>
+        <v>4.2485601424160393</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5488931243360922</v>
+        <v>4.2481552072268203</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6699966250279008</v>
+        <v>4.5408105867821442</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6101526401564272</v>
+        <v>4.4820802911777031</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0390434573200045</v>
+        <v>4.7671269918745161</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5248633879781413E-5</v>
+        <v>3.7792349726775954E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9862241321508028E-5</v>
+        <v>2.048946999481881E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,15 +13712,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72058742504460938</v>
+        <v>0.69287252408135513</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7788018441620792</v>
+        <v>1.6771560244956747</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13728,35 +13728,35 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5294073034444109</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6254759399280472</v>
+        <v>2.7580757348739082</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.3089291350123582</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>1.7539065874120927</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>1.0008191709115808</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20773587169904661</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3361436066683611E-3</v>
+        <v>1.3642729457561161E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759099582257252E-4</v>
+        <v>2.3533401583135605E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>3.4885245901639338E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1116698668129589E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,19 +13813,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2896921209171766E-2</v>
+        <v>3.3914351762032752E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>0.69287252408135513</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7788018441620792</v>
+        <v>1.6771560244956747</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>2.2240954590060995</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,27 +13833,27 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.3551077177126052</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8817956094108914</v>
+        <v>1.7539065874120927</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98100096950739102</v>
+        <v>1.0404555737199601</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22960280556210416</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3924022848438712E-3</v>
+        <v>1.3642729457561161E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.7875102861845109E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7296319398636704E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1120477295030498</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>1.1775538588563026</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52022778685998006</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>6.8213647287805807E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5248633879781413E-5</v>
+        <v>3.5975409836065571E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0280393770381884E-5</v>
+        <v>2.1534851117003441E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,19 +14184,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4592638797273409E-2</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.292180013873633</v>
+        <v>2.2694851622511218</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14204,35 +14204,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7580757348739082</v>
+        <v>2.7845956938630803</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3551077177126052</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8269860285542634</v>
+        <v>1.7904463079831781</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94136456669901147</v>
+        <v>1.0107282716136756</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2230427254031869</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.420531623931626E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5739657981554569E-4</v>
+        <v>2.4759099582257252E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1410807351193193E-5</v>
+        <v>6.2057236902258382E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5596064152061082</v>
+        <v>6.0550006031856469</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3359457123160929</v>
+        <v>5.3375131397057487</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2415122838934924</v>
+        <v>5.6208041286368644</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458340141357096</v>
+        <v>5.5242735782175654</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8419879081899326</v>
+        <v>4.9734788393323823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3829501568181675</v>
+        <v>4.0133897377990193</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1602831227248034</v>
+        <v>3.6372113800978827</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0385610250178301</v>
+        <v>3.2326695865978539</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8795872227872299</v>
+        <v>3.2941219368435992</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8226174438516591</v>
+        <v>3.0376957397527655</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7050688372552147</v>
+        <v>3.0447657808128836</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8204144645644784</v>
+        <v>3.0340241076074643</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6882774877592084</v>
+        <v>2.7596843549910135</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5195616012341095</v>
+        <v>2.7192154969452487</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.054966280535433</v>
+        <v>3.4920995616942001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.33227644438516</v>
+        <v>3.5881176067463998</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3202319894433669</v>
+        <v>3.8279921711355214</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4645473657819181</v>
+        <v>4.1940542891376511</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4666917140207536</v>
+        <v>3.9467067424332059</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.39770225859123</v>
+        <v>4.3326900462262579</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5754440943812602</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6699966250279008</v>
+        <v>4.3137700574430369</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7156133528900201</v>
+        <v>4.2623704729827177</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0688380010192207</v>
+        <v>4.7174694190424908</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7428961748633879E-5</v>
+        <v>3.6338797814207646E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5270925832514066E-2</v>
+        <v>3.3236064726792094E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65822889787728733</v>
+        <v>0.69287252408135513</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6602150545512739</v>
+        <v>1.7618608742176785</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2467903106286107</v>
+        <v>2.3375697171186554</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4788191573755225</v>
+        <v>2.5294073034444109</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6785158579063912</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2165719696118638</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8452558888398061</v>
+        <v>1.73563672712655</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0107282716136756</v>
+        <v>1.0008191709115808</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22960280556210416</v>
+        <v>0.21210925847165812</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4345962934755037E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>2.4023680782784263E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3350096004388773E-5</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4521857923497262E-5</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9862241321508028E-5</v>
+        <v>2.0071317545944954E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4592638797273409E-2</v>
+        <v>3.4931782314893738E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>0.69287252408135513</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>1.7449199042732777</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3148748654961442</v>
+        <v>2.2240954590060995</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>2.5041132304099669</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5989559809388747</v>
+        <v>2.7845956938630803</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3551077177126052</v>
+        <v>2.3781970090627289</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>1.7721764476976354</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96118276810320125</v>
+        <v>1.0404555737199601</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2230427254031869</v>
+        <v>0.21866933863057539</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.3924022848438712E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5739657981554569E-4</v>
+        <v>2.4268820382608591E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2057236902258382E-5</v>
+        <v>6.3996525555453962E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7805034675067194E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36375807514271147</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,19 +14600,19 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1347425811255609</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.2014684691360951</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3657778879423679</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14620,23 +14620,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52022778685998006</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0.11261470939474633</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1028618451129191E-5</v>
+        <v>3.361433665538996E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7428961748633879E-5</v>
+        <v>3.5612021857923495E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.048946999481881E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,23 +14858,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4931782314893738E-2</v>
+        <v>3.3914351762032752E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>0.67901507359972801</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7449199042732777</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3375697171186554</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.5547013764788549</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14882,31 +14882,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4243755917629763</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7721764476976354</v>
+        <v>1.8452558888398061</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96118276810320125</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22522941878949265</v>
+        <v>0.21429595185796388</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3502082762122387E-3</v>
+        <v>1.4627256325632585E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759099582257252E-4</v>
+        <v>2.4023680782784263E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.5935814208649529E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8531822020272304</v>
+        <v>6.0550006031856469</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3359457123160929</v>
+        <v>5.2819140445004802</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3724824771821189</v>
+        <v>5.2933786454152987</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4130165473344172</v>
+        <v>5.6336651342218751</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8135680291080329</v>
+        <v>4.926112374195883</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5836196437081185</v>
+        <v>3.9715835946969458</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1602831227248034</v>
+        <v>3.8209089245472709</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0385610250178301</v>
+        <v>3.1337103135387356</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8989644106510162</v>
+        <v>3.2618266237372895</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7695314988851059</v>
+        <v>2.9787113564565946</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.75726482206915</v>
+        <v>2.9867702421307336</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7337280614899795</v>
+        <v>2.8895467691499661</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5584099887008074</v>
+        <v>2.7596843549910135</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6795154539955948</v>
+        <v>2.6658975460247536</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1154064652570637</v>
+        <v>3.1898986380860479</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2425735042164998</v>
+        <v>3.8497511822383252</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3436686762054211</v>
+        <v>3.9451756049457924</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5942603850335986</v>
+        <v>4.4534803276410102</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3926909626001311</v>
+        <v>4.1933759138352817</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4734191720204266</v>
+        <v>4.2906250943211486</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6019950644264278</v>
+        <v>4.2039035904848738</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6699966250279008</v>
+        <v>4.5862186926499655</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5310571056062319</v>
+        <v>4.3502544002607122</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9496598262223568</v>
+        <v>4.7174694190424908</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7428961748633879E-5</v>
+        <v>3.815573770491803E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.048946999481881E-5</v>
+        <v>2.1953003565877297E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>3.2896921209171766E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.68594379884054157</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6602150545512739</v>
+        <v>1.6940969944400754</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.1560109041385656</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4029369382721901</v>
+        <v>2.5041132304099669</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7050358168955637</v>
+        <v>2.5193961039713582</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3551077177126052</v>
+        <v>2.2627505523121112</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8452558888398061</v>
+        <v>1.9000654696964341</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305464730178653</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22741611217579841</v>
+        <v>0.22085603201688114</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3783376152999936E-3</v>
+        <v>1.3642729457561161E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>2.4759099582257252E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3350096004388773E-5</v>
+        <v>6.2057236902258382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.815573770491803E-5</v>
+        <v>3.4885245901639338E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698546219255736E-5</v>
+        <v>2.0071317545944954E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15165,15 +15165,15 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.67208634835891445</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7788018441620792</v>
+        <v>1.6771560244956747</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2240954590060995</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15181,31 +15181,31 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7580757348739082</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8817956094108914</v>
+        <v>1.9000654696964341</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>1.0107282716136756</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22522941878949265</v>
+        <v>0.2230427254031869</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.4767903021071361E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8169398907103823E-5</v>
+        <v>1.9077868852459015E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,31 +15262,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>1.6787604122206212E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>0.83010752727563697</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0893528778805384</v>
+        <v>1.1007003036917942</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3657778879423679</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15298,19 +15298,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10496128254267618</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>3.264469232879217E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4765765027322405E-5</v>
+        <v>4.7534781420765025E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.687047636463381E-5</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,19 +26485,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.397493695701133E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91805479572251414</v>
+        <v>0.85685114267434648</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2005359124773669</v>
+        <v>2.243683675467119</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.8196452768174058</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26505,35 +26505,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4697247859217333</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0672118149820333</v>
+        <v>2.8017800233008958</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>2.1815510705365155</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.28051962022899318</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>2.8872958946694704E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7435795922099285E-5</v>
+        <v>7.9000155435677061E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8582358069257161</v>
+        <v>4.6276198778797308</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4419499211304379</v>
+        <v>4.0699165352173958</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6320302015174506</v>
+        <v>4.0107126880265911</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4390799908645242</v>
+        <v>4.2261286970424923</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1528058404538744</v>
+        <v>3.4814351875326683</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8079108169739206</v>
+        <v>3.0131846949565344</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635607169918959</v>
+        <v>2.9392678616531596</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5516458039480563</v>
+        <v>2.5860763399134274</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.422080477019551</v>
+        <v>2.4886408347842144</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2811425787408934</v>
+        <v>2.2441783267059865</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3312319452031742</v>
+        <v>2.1743455104985179</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2599907307156015</v>
+        <v>2.1642697925557104</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2229679972494485</v>
+        <v>1.9583474465759143</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1910416061768141</v>
+        <v>2.1066042014011681</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4177754491188548</v>
+        <v>2.5868183633045772</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6572109925989178</v>
+        <v>2.650421621159885</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7019486266627708</v>
+        <v>2.8365810444379513</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.941404121871547</v>
+        <v>3.1087843781603204</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7744436054009483</v>
+        <v>2.8668731719913279</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7950121678332178</v>
+        <v>3.212127037175232</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1575046466714727</v>
+        <v>3.4229641028922404</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0355406877601188</v>
+        <v>3.3589780326074563</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9752924630595459</v>
+        <v>3.1604679408952734</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1911632481846319</v>
+        <v>3.9127915146154142</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.6611775956284149E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86559452168122764</v>
+        <v>0.87433790068810868</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0710926235081097</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0231248328763938</v>
+        <v>2.8777822928342593</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3578280614711575</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5370980827357479</v>
+        <v>3.368664840700712</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0967042362799373</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.2045147660158473</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2046803812012747</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>1.8263468418236498E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9775238913778914E-4</v>
+        <v>3.0677518880863124E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9000155435677061E-5</v>
+        <v>8.0564514949254824E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5227267759562839E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6607040321843284E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,19 +26788,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2283593227895509E-2</v>
+        <v>4.1860757295616551E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83062100565370323</v>
+        <v>0.87433790068810868</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1789620309824906</v>
+        <v>2.1358142679927381</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0231248328763938</v>
+        <v>2.9649878168595403</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26808,11 +26808,11 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>3.4697247859217333</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8017800233008958</v>
+        <v>3.0672118149820333</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26820,23 +26820,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.2046803812012747</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28885188617638902</v>
+        <v>0.28051962022899318</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6858586232218306E-3</v>
+        <v>1.7034196505470579E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1279038858919264E-4</v>
+        <v>3.0376758891835054E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7435795922099285E-5</v>
+        <v>7.9782335192465936E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1921379781420765E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3303520160921642E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,31 +26889,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>2.0930378647808275E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.42405388183373272</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4534254004213432</v>
+        <v>1.4970281624339834</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6789140307355788</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188596968420645</v>
+        <v>1.4893672755441603</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26921,23 +26921,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.59613049791403283</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.4304262295081964E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.687047636463381E-5</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,15 +27240,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2706429160174468E-2</v>
+        <v>4.2283593227895509E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84810776366746543</v>
+        <v>0.90931141671563309</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1573881494876144</v>
+        <v>2.1789620309824906</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27256,39 +27256,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2299108019865419</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2339182470726833</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0967042362799373</v>
+        <v>2.8902572871946082</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.227478461495179</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040354641869469</v>
+        <v>1.2419385373209018</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.27496477626406263</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>1.7034196505470579E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0075998902806984E-4</v>
+        <v>3.1279038858919264E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9782335192465936E-5</v>
+        <v>8.0564514949254824E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8037932201271314</v>
+        <v>4.3554069438868055</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5137719776342742</v>
+        <v>4.0300153927152644</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6069632472172843</v>
+        <v>4.2613822310282528</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5115279113852527</v>
+        <v>4.1858798523087541</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1954356590767237</v>
+        <v>3.6590594317945389</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9982172187606491</v>
+        <v>3.2352088303743844</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6950729221572587</v>
+        <v>2.71097521220437</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4901944849798163</v>
+        <v>2.6116810561501942</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4505220865599422</v>
+        <v>2.3227314457985999</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3072883456539728</v>
+        <v>2.0916613530463564</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3312319452031742</v>
+        <v>2.2409071077586766</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3114189238060345</v>
+        <v>2.0999845511926694</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2229679972494485</v>
+        <v>1.9783305837858727</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2761160066180153</v>
+        <v>2.0660925821434533</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5371670658867584</v>
+        <v>2.4624520958380107</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7576480224533975</v>
+        <v>2.8736150208365068</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.769352532669217</v>
+        <v>2.7242412010938737</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9604374956153858</v>
+        <v>3.0453397990141911</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8106567402050491</v>
+        <v>2.8668731719913279</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9461710872296991</v>
+        <v>3.2436184787161655</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0122879877608928</v>
+        <v>3.3883887079135313</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0355406877601188</v>
+        <v>3.3253882522813818</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9357866137983548</v>
+        <v>3.357997187201228</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2582396741494675</v>
+        <v>3.5401447036996596</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.4304262295081964E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6343604279052755E-5</v>
+        <v>2.687047636463381E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,11 +27442,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2283593227895509E-2</v>
+        <v>4.3552101024732379E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83936438466058427</v>
+        <v>0.85685114267434648</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27454,23 +27454,23 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9940563248679668</v>
+        <v>2.8196452768174058</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2938694317288499</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.368664840700712</v>
+        <v>3.2002315986656762</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8902572871946082</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.319333243412506</v>
+        <v>2.2045147660158473</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27478,19 +27478,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.29162930815885429</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8439078691488773E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9474478924750844E-4</v>
+        <v>2.8872958946694704E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5871436408521522E-5</v>
+        <v>7.9000155435677061E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7996284153005466E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5553296150681172E-5</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,23 +27543,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.397493695701133E-2</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83062100565370323</v>
+        <v>0.89182465870187089</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.092666505002986</v>
+        <v>2.1358142679927381</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>3.0231248328763938</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.3578280614711575</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27567,31 +27567,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787345510883205</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.2045147660158473</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2419385373209018</v>
+        <v>1.2046803812012747</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>1.8263468418236498E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>2.8572198957666634E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.665361616531041E-5</v>
+        <v>8.2128874462832587E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.261363387978142E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.290836609673585E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,11 +27644,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0930378647808275E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42405388183373272</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27656,19 +27656,19 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6506457719433489</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156362222993999</v>
+        <v>1.4893672755441603</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64580803940686893</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27688,11 +27688,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>4.7996284153005466E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.687047636463381E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3552101024732379E-2</v>
+        <v>4.4397772889290289E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86559452168122764</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27926,39 +27926,39 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8487137848258324</v>
+        <v>2.8196452768174058</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2339182470726833</v>
+        <v>3.334978192293705</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0672118149820333</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2734058524538425</v>
+        <v>2.227478461495179</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040354641869469</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.28051962022899318</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7736637598479677E-3</v>
+        <v>1.8087858144984225E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1279038858919264E-4</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5860228729327908</v>
+        <v>4.7183575225440393</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2743651226214858</v>
+        <v>3.9502131077110021</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6069632472172843</v>
+        <v>4.3867170025290845</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4390799908645242</v>
+        <v>4.1858798523087541</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1314909311424497</v>
+        <v>3.6590594317945389</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9601559384033034</v>
+        <v>3.0766201622187772</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6608290247399404</v>
+        <v>2.7680483745665674</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5209201444639362</v>
+        <v>2.5604716236766607</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3509764531685735</v>
+        <v>2.3938354696495776</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3072883456539728</v>
+        <v>2.1570257703290552</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3844812230113011</v>
+        <v>2.1965327095852376</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.27284777898821</v>
+        <v>2.0356993098296283</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2109781149234735</v>
+        <v>2.0982294070456224</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.215348577731443</v>
+        <v>2.0255809628857384</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5371670658867584</v>
+        <v>2.5121986028246375</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6069924776716777</v>
+        <v>2.6783207961194626</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7525015561676056</v>
+        <v>2.8646660052739703</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9794708693592247</v>
+        <v>3.0453397990141911</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8106567402050491</v>
+        <v>2.9272283966648294</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9083813573805788</v>
+        <v>3.212127037175232</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0122879877608928</v>
+        <v>3.526690287828369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.91461747858625</v>
+        <v>3.2246189113031583</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0543041615819275</v>
+        <v>3.4238402693032128</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1464456308747413</v>
+        <v>3.6892034280659614</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7073278688524591E-5</v>
+        <v>4.6611775956284149E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7133912407424339E-5</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,51 +28116,51 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3552101024732379E-2</v>
+        <v>4.0169413566500729E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84810776366746543</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0495187420132335</v>
+        <v>2.1358142679927381</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9359193088511133</v>
+        <v>2.7905767688089789</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0700142276307725</v>
+        <v>3.1019935425019263</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>3.2339182470726833</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312724445987998</v>
+        <v>2.8902572871946082</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2504421569745108</v>
+        <v>2.3652606343711695</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040354641869469</v>
+        <v>1.2667773080673199</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.28051962022899318</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>1.8263468418236498E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9775238913778914E-4</v>
+        <v>3.1579798847947334E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.6080168236262226E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2706429160174468E-2</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83936438466058427</v>
+        <v>0.88308127969498973</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0495187420132335</v>
+        <v>2.0710926235081097</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2676048954796908</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8902572871946082</v>
+        <v>2.8312724445987998</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.227478461495179</v>
+        <v>2.1815510705365155</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2295191519476927</v>
+        <v>1.2916160788137379</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.27496477626406263</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7209806778722854E-3</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1279038858919264E-4</v>
+        <v>3.0978278869891194E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2128874462832587E-5</v>
+        <v>8.0564514949254824E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.261363387978142E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28322,19 +28322,19 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41531050282685161</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.1326287784809976</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28342,7 +28342,7 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893672755441603</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28350,19 +28350,19 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64580803940686893</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8683187992398386E-4</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_3/ieee18_3_2030.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F301A52-C5DD-4A47-A46D-1BB7915308F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE25E212-4304-42DC-9D74-4925DD93F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2370" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="3840" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8899,7 +8899,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>3.6702185792349721E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9862241321508028E-5</v>
+        <v>2.0071317545944954E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13514,51 +13514,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68594379884054157</v>
+        <v>0.69980124932216869</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6093921447180717</v>
+        <v>1.7449199042732777</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>2.3829594203636781</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4029369382721901</v>
+        <v>2.5799954495132993</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.7580757348739082</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4012863004128526</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9183353299819768</v>
+        <v>1.8269860285542634</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>0.98100096950739102</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.21866933863057539</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.3502082762122387E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>2.4268820382608591E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.528938465758434E-5</v>
+        <v>6.7875102861845109E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8715157364224453</v>
+        <v>6.2384854699488486</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3931122349110163</v>
+        <v>5.8379049965531626</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2933786454152987</v>
+        <v>5.6753750425071248</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5789693562197193</v>
+        <v>5.2507946882067946</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5471806531038919</v>
+        <v>4.5945471182403903</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2224204533093852</v>
+        <v>4.1388081671052381</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7841694156573933</v>
+        <v>3.710690397877638</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.463574557069129</v>
+        <v>3.3646152840100108</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1003500582057404</v>
+        <v>3.3910078761625289</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787113564565946</v>
+        <v>2.9492191648085098</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417813954253579</v>
+        <v>2.9577724727896584</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8028603660754667</v>
+        <v>2.976233172224465</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7596843549910135</v>
+        <v>2.5702942521975123</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7991924233259913</v>
+        <v>2.5326026687235159</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2570543988878593</v>
+        <v>3.4585216812932944</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6628700568869501</v>
+        <v>3.8497511822383252</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8670533157389446</v>
+        <v>3.7889310265320972</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3237673083893311</v>
+        <v>4.1508166160537572</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.234487442402294</v>
+        <v>4.2755989709693063</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2485601424160393</v>
+        <v>3.9961704309853836</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2481552072268203</v>
+        <v>4.6464197579043356</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5408105867821442</v>
+        <v>4.7224430102534303</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4820802911777031</v>
+        <v>4.3502544002607122</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7671269918745161</v>
+        <v>5.1147300016987005</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7792349726775954E-5</v>
+        <v>3.815573770491803E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.048946999481881E-5</v>
+        <v>2.1116698668129589E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>3.4931782314893738E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.69980124932216869</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6771560244956747</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2240954590060995</v>
+        <v>2.2467903106286107</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.4535250843410785</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7580757348739082</v>
+        <v>2.5193961039713582</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3089291350123582</v>
+        <v>2.2396612609619875</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7539065874120927</v>
+        <v>1.73563672712655</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0008191709115808</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22522941878949265</v>
+        <v>0.20773587169904661</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.3361436066683611E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3533401583135605E-4</v>
+        <v>2.4759099582257252E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3350096004388773E-5</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>3.6702185792349721E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698546219255736E-5</v>
+        <v>2.1743927341440371E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13817,19 +13817,19 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.71365869980379582</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6771560244956747</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2240954590060995</v>
+        <v>2.2467903106286107</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>2.5041132304099669</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3551077177126052</v>
+        <v>2.3320184263624819</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0404555737199601</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13853,15 +13853,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.4486609630193811E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>2.3778541182959933E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7875102861845109E-5</v>
+        <v>6.2057236902258382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349273109627868E-5</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,15 +13914,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13930,39 +13930,39 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.2773506882394274</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1775538588563026</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>0.52022778685998006</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1137080560878992</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8213647287805807E-4</v>
+        <v>7.3839515105356807E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,19 +14184,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>3.3914351762032752E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>0.68594379884054157</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6432740846068732</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2694851622511218</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14204,35 +14204,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>2.5724360219497027</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.2627505523121112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7904463079831781</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0107282716136756</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22960280556210416</v>
+        <v>0.20773587169904661</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420531623931626E-3</v>
+        <v>1.3361436066683611E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759099582257252E-4</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2057236902258382E-5</v>
+        <v>6.3350096004388773E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3375131397057487</v>
+        <v>5.3931122349110163</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14269,39 +14269,39 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5242735782175654</v>
+        <v>5.6883609122240291</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9734788393323823</v>
+        <v>4.5471806531038919</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0133897377990193</v>
+        <v>4.3478388826156049</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6372113800978827</v>
+        <v>3.8209089245472709</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2326695865978539</v>
+        <v>3.463574557069129</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2941219368435992</v>
+        <v>3.1649406844183603</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0376957397527655</v>
+        <v>3.0966801230489356</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0447657808128836</v>
+        <v>2.8127836260842827</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0340241076074643</v>
+        <v>2.976233172224465</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14313,15 +14313,15 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4920995616942001</v>
+        <v>3.3577880400905769</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5881176067463998</v>
+        <v>3.6628700568869501</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8279921711355214</v>
+        <v>3.9842367495492157</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14329,27 +14329,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9467067424332059</v>
+        <v>4.3167104995363195</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3326900462262579</v>
+        <v>4.2485601424160393</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2924068239687667</v>
+        <v>4.4694132909365507</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3137700574430369</v>
+        <v>4.677034904385609</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2623704729827177</v>
+        <v>4.3063124366217149</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7174694190424908</v>
+        <v>5.1147300016987005</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>3.5975409836065571E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1534851117003441E-5</v>
+        <v>2.048946999481881E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,15 +14386,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.5270925832514066E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.69980124932216869</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14402,27 +14402,27 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5294073034444109</v>
+        <v>2.6052895225477433</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.73563672712655</v>
+        <v>1.9183353299819768</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0008191709115808</v>
+        <v>0.98100096950739102</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21210925847165812</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14430,11 +14430,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4023680782784263E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.528938465758434E-5</v>
+        <v>6.7228673310779921E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7065573770491797E-5</v>
+        <v>3.6702185792349721E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0071317545944954E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4931782314893738E-2</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.72751615028542294</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14499,43 +14499,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2240954590060995</v>
+        <v>2.3148748654961442</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5041132304099669</v>
+        <v>2.5547013764788549</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>2.6785158579063912</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3781970090627289</v>
+        <v>2.3320184263624819</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7721764476976354</v>
+        <v>1.8817956094108914</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0404555737199601</v>
+        <v>1.0008191709115808</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21866933863057539</v>
+        <v>0.22085603201688114</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3924022848438712E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3996525555453962E-5</v>
+        <v>6.3350096004388773E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8169398907103823E-5</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>1.0558349334064794E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,19 +14588,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6109317086965558E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.36375807514271147</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1233951553143053</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,35 +14608,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11261470939474633</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3136281628162925E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2134410191304296E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.361433665538996E-5</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5612021857923495E-5</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3914351762032752E-2</v>
+        <v>3.5270925832514066E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67901507359972801</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7279789343288769</v>
+        <v>1.7788018441620792</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.3829594203636781</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5547013764788549</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5989559809388747</v>
+        <v>2.6254759399280472</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.19348267826174</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8452558888398061</v>
+        <v>1.7904463079831781</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>0.94136456669901147</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4627256325632585E-3</v>
+        <v>1.3361436066683611E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4023680782784263E-4</v>
+        <v>2.3778541182959933E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5935814208649529E-5</v>
+        <v>6.4642955106519151E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,11 +14931,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0550006031856469</v>
+        <v>6.1773238476944492</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2819140445004802</v>
+        <v>5.4487113301162848</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14943,43 +14943,43 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6336651342218751</v>
+        <v>5.4148820222132574</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.926112374195883</v>
+        <v>4.9734788393323823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9715835946969458</v>
+        <v>4.055195880901092</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8209089245472709</v>
+        <v>3.5637323623181274</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1337103135387356</v>
+        <v>3.2326695865978539</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618266237372895</v>
+        <v>3.1649406844183603</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787113564565946</v>
+        <v>2.9492191648085098</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9867702421307336</v>
+        <v>2.7547880874021322</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8895467691499661</v>
+        <v>3.0340241076074643</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7596843549910135</v>
+        <v>2.8408515419025138</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1898986380860479</v>
+        <v>3.4249438008923883</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14999,15 +14999,15 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4534803276410102</v>
+        <v>4.3670049814732241</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1933759138352817</v>
+        <v>3.9055952138661931</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2906250943211486</v>
+        <v>4.0803003347956022</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15015,15 +15015,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5862186926499655</v>
+        <v>4.3137700574430369</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3502544002607122</v>
+        <v>4.3063124366217149</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7174694190424908</v>
+        <v>5.1147300016987005</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.815573770491803E-5</v>
+        <v>3.5612021857923495E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1953003565877297E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,19 +15060,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2896921209171766E-2</v>
+        <v>3.4592638797273409E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68594379884054157</v>
+        <v>0.72751615028542294</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6940969944400754</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1560109041385656</v>
+        <v>2.3375697171186554</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15080,27 +15080,27 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5193961039713582</v>
+        <v>2.7845956938630803</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2627505523121112</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>1.8087161682687207</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>1.0107282716136756</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22085603201688114</v>
+        <v>0.20992256508535237</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.4345962934755037E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2057236902258382E-5</v>
+        <v>6.7875102861845109E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0071317545944954E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,19 +15161,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.3914351762032752E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67208634835891445</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6771560244956747</v>
+        <v>1.7618608742176785</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.1560109041385656</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15185,31 +15185,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4243755917629763</v>
+        <v>2.3320184263624819</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>1.8817956094108914</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0107282716136756</v>
+        <v>0.94136456669901147</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2230427254031869</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4767903021071361E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>2.4023680782784263E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6582243759714732E-5</v>
+        <v>6.3996525555453962E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0558349334064794E-5</v>
+        <v>9.931120660754014E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,27 +15262,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787604122206212E-2</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83010752727563697</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1007003036917942</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3922978469315401</v>
+        <v>1.2596980519856791</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15294,23 +15294,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.47563683370055321</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.10386793584952331</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.264469232879217E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26489,31 +26489,31 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85685114267434648</v>
+        <v>0.83936438466058427</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.243683675467119</v>
+        <v>2.2005359124773669</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8196452768174058</v>
+        <v>3.0521933408848207</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0380349127596187</v>
+        <v>3.3258487466000037</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8017800233008958</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.2963695479331743</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26521,19 +26521,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.28329704221145846</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6682975958966031E-3</v>
+        <v>1.7736637598479677E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8872958946694704E-4</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9000155435677061E-5</v>
+        <v>7.665361616531041E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,75 +26558,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6276198778797308</v>
+        <v>4.4915134108832682</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0699165352173958</v>
+        <v>3.9103119652088703</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0107126880265911</v>
+        <v>4.2196039738613091</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2261286970424923</v>
+        <v>3.8236402497051118</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4814351875326683</v>
+        <v>3.5524848852374165</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0131846949565344</v>
+        <v>3.14005562948102</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9392678616531596</v>
+        <v>2.71097521220437</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5860763399134274</v>
+        <v>2.5092621912031272</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4886408347842144</v>
+        <v>2.4649394935005549</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2441783267059865</v>
+        <v>2.222390187611754</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1743455104985179</v>
+        <v>2.3074687050188354</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1642697925557104</v>
+        <v>2.1214129649803497</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9583474465759143</v>
+        <v>1.9183811721559976</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1066042014011681</v>
+        <v>2.0255809628857384</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5868183633045772</v>
+        <v>2.5619451098112638</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.650421621159885</v>
+        <v>2.7899174959577739</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8365810444379513</v>
+        <v>2.7242412010938737</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1087843781603204</v>
+        <v>3.2991181155987075</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26634,23 +26634,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.212127037175232</v>
+        <v>3.1491441540933645</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4229641028922404</v>
+        <v>3.4575394978709499</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3589780326074563</v>
+        <v>3.2246189113031583</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1604679408952734</v>
+        <v>3.2263110229972582</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9127915146154142</v>
+        <v>3.6519387469743863</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6611775956284149E-5</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.5026424065100117E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,31 +26687,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.3552101024732379E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2652575569619953</v>
+        <v>2.1573881494876144</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8777822928342593</v>
+        <v>2.9649878168595403</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1979314871153881</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.368664840700712</v>
+        <v>3.4697247859217333</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>2.9787345510883205</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26719,11 +26719,11 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2777421982465279</v>
+        <v>0.26940993229913207</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26731,11 +26731,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0677518880863124E-4</v>
+        <v>3.0075998902806984E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0564514949254824E-5</v>
+        <v>7.9000155435677061E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.568877049180328E-5</v>
+        <v>4.7534781420765025E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7133912407424339E-5</v>
+        <v>2.6607040321843284E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,51 +26788,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1860757295616551E-2</v>
+        <v>4.3552101024732379E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1358142679927381</v>
+        <v>2.243683675467119</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>2.8487137848258324</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.2299108019865419</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4697247859217333</v>
+        <v>3.368664840700712</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0672118149820333</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>2.3882243298505013</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2046803812012747</v>
+        <v>1.2543579226941108</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.29162930815885429</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>1.7209806778722854E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0376758891835054E-4</v>
+        <v>3.0075998902806984E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26893,39 +26893,39 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42405388183373272</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894810154912453</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4970281624339834</v>
+        <v>1.4824939084297701</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6001157993328381</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893672755441603</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59613049791403283</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26933,11 +26933,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.4286099478833317E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.715353844747188E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4304262295081964E-5</v>
+        <v>4.6150273224043715E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.5553296150681172E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2283593227895509E-2</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27252,35 +27252,35 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7615082608005519</v>
+        <v>3.0231248328763938</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1979314871153881</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8902572871946082</v>
+        <v>2.8312724445987998</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.227478461495179</v>
+        <v>2.2734058524538425</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2419385373209018</v>
+        <v>1.2916160788137379</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>1.7736637598479677E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0564514949254824E-5</v>
+        <v>7.9782335192465936E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,51 +27313,51 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3554069438868055</v>
+        <v>4.5368822332154224</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0300153927152644</v>
+        <v>4.1497188202216586</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2613822310282528</v>
+        <v>4.0942692023604783</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1858798523087541</v>
+        <v>4.1053821628412788</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6590594317945389</v>
+        <v>3.5169600363850422</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2352088303743844</v>
+        <v>3.0449024285876556</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.71097521220437</v>
+        <v>2.9392678616531596</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6116810561501942</v>
+        <v>2.4324480424928274</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3227314457985999</v>
+        <v>2.2990301045149404</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0916613530463564</v>
+        <v>2.1788139094232881</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2409071077586766</v>
+        <v>2.2630943068453964</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0999845511926694</v>
+        <v>2.1856982063433907</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27365,27 +27365,27 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0660925821434533</v>
+        <v>2.1066042014011681</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4624520958380107</v>
+        <v>2.6116916167978905</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8736150208365068</v>
+        <v>2.7620183209981963</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7242412010938737</v>
+        <v>2.8646660052739703</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0453397990141911</v>
+        <v>3.2356735364525786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8668731719913279</v>
+        <v>2.8970507843280786</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27393,11 +27393,11 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3883887079135313</v>
+        <v>3.526690287828369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3253882522813818</v>
+        <v>3.5269269342378298</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27405,7 +27405,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5401447036996596</v>
+        <v>3.5774093847912352</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4304262295081964E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.687047636463381E-5</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27446,19 +27446,19 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85685114267434648</v>
+        <v>0.90931141671563309</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0710926235081097</v>
+        <v>2.243683675467119</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8196452768174058</v>
+        <v>2.9359193088511133</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618901168576961</v>
+        <v>3.0700142276307725</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27466,31 +27466,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>2.8607648658967042</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2045147660158473</v>
+        <v>2.2734058524538425</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2667773080673199</v>
+        <v>1.2543579226941108</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29162930815885429</v>
+        <v>0.27496477626406263</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6682975958966031E-3</v>
+        <v>1.6858586232218306E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8872958946694704E-4</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9000155435677061E-5</v>
+        <v>8.2128874462832587E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.568877049180328E-5</v>
+        <v>4.7073278688524591E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,7 +27543,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.1437921363337599E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27551,47 +27551,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1358142679927381</v>
+        <v>2.1789620309824906</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0231248328763938</v>
+        <v>2.8196452768174058</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3578280614711575</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5034114343287408</v>
+        <v>3.2676048954796908</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>2.8312724445987998</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2045147660158473</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2046803812012747</v>
+        <v>1.2916160788137379</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2777421982465279</v>
+        <v>0.29162930815885429</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8263468418236498E-3</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572198957666634E-4</v>
+        <v>3.0677518880863124E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2128874462832587E-5</v>
+        <v>7.7435795922099285E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27624,7 +27624,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,27 +27644,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1141796613947755E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41968219233029214</v>
+        <v>0.43716895034405434</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1110548969861214</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.646934715864425</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,11 +27672,11 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27684,15 +27684,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7996284153005466E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.687047636463381E-5</v>
+        <v>2.6080168236262226E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.101508543105864E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83062100565370323</v>
+        <v>0.90931141671563309</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2221097939722427</v>
+        <v>2.0495187420132335</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8196452768174058</v>
+        <v>2.7905767688089789</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1659521722442343</v>
+        <v>3.3578280614711575</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.334978192293705</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0967042362799373</v>
+        <v>2.9787345510883205</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.227478461495179</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.2791966934405288</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.28607446419392374</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8087858144984225E-3</v>
+        <v>1.8439078691488773E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>3.0075998902806984E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5089256651732648E-5</v>
+        <v>8.2128874462832587E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,19 +27987,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7183575225440393</v>
+        <v>4.5368822332154224</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9502131077110021</v>
+        <v>4.0300153927152644</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3867170025290845</v>
+        <v>4.0107126880265911</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1858798523087541</v>
+        <v>4.1053821628412788</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28007,51 +28007,51 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0766201622187772</v>
+        <v>3.1717733631121412</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7680483745665674</v>
+        <v>2.8821946992909626</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5604716236766607</v>
+        <v>2.4324480424928274</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3938354696495776</v>
+        <v>2.2753287632312817</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1570257703290552</v>
+        <v>2.1788139094232881</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1965327095852376</v>
+        <v>2.3074687050188354</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0356993098296283</v>
+        <v>2.078556137404989</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0982294070456224</v>
+        <v>2.0582631326257057</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0255809628857384</v>
+        <v>1.9243019147414511</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5121986028246375</v>
+        <v>2.387832335358071</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6783207961194626</v>
+        <v>2.7620183209981963</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8646660052739703</v>
+        <v>2.7242412010938737</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28059,15 +28059,15 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9272283966648294</v>
+        <v>2.8970507843280786</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.212127037175232</v>
+        <v>3.1176527125524309</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.526690287828369</v>
+        <v>3.3538133129348213</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28075,11 +28075,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4238402693032128</v>
+        <v>3.357997187201228</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6892034280659614</v>
+        <v>3.8382621524322631</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6611775956284149E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.5289860107890643E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0169413566500729E-2</v>
+        <v>4.397493695701133E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83062100565370323</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1358142679927381</v>
+        <v>2.0495187420132335</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7905767688089789</v>
+        <v>2.9359193088511133</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.3258487466000037</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2339182470726833</v>
+        <v>3.4023514891077191</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8902572871946082</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.3882243298505013</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2667773080673199</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8263468418236498E-3</v>
+        <v>1.791224787173195E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1579798847947334E-4</v>
+        <v>2.9775238913778914E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7435795922099285E-5</v>
+        <v>7.665361616531041E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.568877049180328E-5</v>
+        <v>4.8457786885245901E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6080168236262226E-5</v>
+        <v>2.6607040321843284E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,11 +28217,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0592249498779688E-2</v>
+        <v>4.101508543105864E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88308127969498973</v>
+        <v>0.83936438466058427</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28229,11 +28229,11 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.9940563248679668</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618901168576961</v>
+        <v>3.3578280614711575</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28241,31 +28241,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312724445987998</v>
+        <v>2.9492421297904166</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.3652606343711695</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2916160788137379</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.27218735428159735</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7561027325227402E-3</v>
+        <v>1.8263468418236498E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>2.9775238913778914E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0564514949254824E-5</v>
+        <v>7.9782335192465936E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>2.1921379781420765E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0718960681668799E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>0.44591232935093544</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1326287784809976</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5989657435576941</v>
+        <v>1.6789140307355788</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.4008900116504479</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1711484694459189</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
